--- a/WIP/Avancement.xlsx
+++ b/WIP/Avancement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205CE5-5AC4-4AC4-8A6F-0E9D6789AEAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841D18F1-E45C-46DD-8B14-6013D8BD9B9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personnage" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="MapJohto" sheetId="5" r:id="rId4"/>
     <sheet name="MapHoenn" sheetId="6" r:id="rId5"/>
     <sheet name="MapSinnoh" sheetId="7" r:id="rId6"/>
+    <sheet name="Musiques" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="198">
   <si>
     <t>Blue</t>
   </si>
@@ -117,9 +118,6 @@
     <t>Rocker</t>
   </si>
   <si>
-    <t>Scientifique</t>
-  </si>
-  <si>
     <t>Scout</t>
   </si>
   <si>
@@ -228,9 +226,6 @@
     <t>Sœur Parasol</t>
   </si>
   <si>
-    <t>Triathlete</t>
-  </si>
-  <si>
     <t>Louka</t>
   </si>
   <si>
@@ -610,13 +605,28 @@
   </si>
   <si>
     <t>Ranger H/F</t>
+  </si>
+  <si>
+    <t>Triathlete H/F</t>
+  </si>
+  <si>
+    <t>Scientifique H/F</t>
+  </si>
+  <si>
+    <t>Bebe</t>
+  </si>
+  <si>
+    <t>Infirmière Ctr Pkm</t>
+  </si>
+  <si>
+    <t>Vendeur Shop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,8 +656,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +685,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -706,12 +728,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -727,9 +750,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1012,58 +1037,58 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1071,24 +1096,24 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1125,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1110,7 +1135,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1120,7 +1145,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -1129,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1166,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1151,7 +1176,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -1161,7 +1186,7 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1170,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1207,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1192,7 +1217,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -1202,7 +1227,7 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -1211,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1223,7 +1248,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1233,7 +1258,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1243,7 +1268,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -1252,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1289,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1274,7 +1299,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -1284,7 +1309,7 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -1293,9 +1318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1305,7 +1330,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1315,7 +1340,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -1325,7 +1350,7 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1334,19 +1359,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1356,7 +1381,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -1366,7 +1391,7 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -1375,9 +1400,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1387,7 +1412,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1397,7 +1422,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -1407,7 +1432,7 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -1416,9 +1441,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1428,7 +1453,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1438,7 +1463,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -1448,7 +1473,7 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1457,9 +1482,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1469,7 +1494,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1479,7 +1504,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -1489,7 +1514,7 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -1498,9 +1523,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1510,7 +1535,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1520,7 +1545,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -1530,7 +1555,7 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -1539,9 +1564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1551,7 +1576,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1561,7 +1586,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
@@ -1571,7 +1596,7 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
@@ -1580,9 +1605,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1592,7 +1617,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1602,7 +1627,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
@@ -1612,7 +1637,7 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -1621,9 +1646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1633,7 +1658,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1643,7 +1668,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -1653,7 +1678,7 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -1662,9 +1687,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1674,7 +1699,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1684,7 +1709,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
@@ -1694,7 +1719,7 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -1703,9 +1728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -1725,7 +1750,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
@@ -1735,7 +1760,7 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -1744,9 +1769,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1766,7 +1791,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -1776,7 +1801,7 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -1785,9 +1810,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1807,7 +1832,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
@@ -1817,7 +1842,7 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -1826,9 +1851,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -1838,7 +1863,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1848,7 +1873,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1858,7 +1883,7 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -1867,9 +1892,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -1879,7 +1904,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1889,7 +1914,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
@@ -1899,7 +1924,7 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -1908,9 +1933,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -1920,17 +1945,17 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
@@ -1940,7 +1965,7 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -1949,9 +1974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -1961,17 +1986,17 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
@@ -1981,7 +2006,7 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
@@ -1990,9 +2015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2002,17 +2027,17 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
@@ -2022,7 +2047,7 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -2031,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2045,15 +2070,15 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
+      <c r="F26" s="3">
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
@@ -2063,7 +2088,7 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -2072,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2084,17 +2109,17 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -2104,7 +2129,7 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -2113,9 +2138,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -2125,17 +2150,17 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -2145,7 +2170,7 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -2154,9 +2179,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -2166,17 +2191,17 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
@@ -2186,7 +2211,7 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N29" s="3">
         <v>1</v>
@@ -2195,9 +2220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -2207,17 +2232,17 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="4">
         <v>0</v>
@@ -2227,7 +2252,7 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
@@ -2236,29 +2261,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4">
+        <v>196</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
         <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
@@ -2268,7 +2293,7 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -2277,29 +2302,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
         <v>0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
@@ -2309,7 +2334,7 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
@@ -2318,29 +2343,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
@@ -2350,7 +2375,7 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
@@ -2359,9 +2384,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -2375,7 +2400,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
@@ -2385,7 +2410,7 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N34" s="3">
         <v>1</v>
@@ -2394,12 +2419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -2410,7 +2435,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -2420,7 +2445,7 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
@@ -2429,9 +2454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2445,7 +2470,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="1"/>
       <c r="I36" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -2455,7 +2480,7 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N36" s="3">
         <v>1</v>
@@ -2464,12 +2489,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -2480,7 +2505,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="1"/>
       <c r="I37" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
@@ -2490,7 +2515,7 @@
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
@@ -2499,12 +2524,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -2515,7 +2540,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
@@ -2525,7 +2550,7 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -2534,12 +2559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -2550,7 +2575,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="1"/>
       <c r="I39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
@@ -2559,22 +2584,22 @@
         <v>1</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="M39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
         <v>0</v>
       </c>
-      <c r="O39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -2585,31 +2610,31 @@
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -2620,31 +2645,31 @@
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
       </c>
       <c r="O41" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -2655,7 +2680,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -2665,21 +2690,21 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
       </c>
       <c r="O42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -2690,7 +2715,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -2700,21 +2725,21 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0.5</v>
       </c>
       <c r="O43" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -2725,31 +2750,31 @@
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
       </c>
       <c r="O44" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -2760,7 +2785,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
@@ -2770,21 +2795,21 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
       </c>
       <c r="O45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -2795,25 +2820,31 @@
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0</v>
+      <c r="M46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -2824,10 +2855,10 @@
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2837,12 +2868,12 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -2853,10 +2884,10 @@
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
@@ -2866,12 +2897,12 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -2882,10 +2913,10 @@
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
       </c>
       <c r="K49" s="3">
         <v>1</v>
@@ -2895,12 +2926,12 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -2911,10 +2942,10 @@
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
       </c>
       <c r="K50" s="3">
         <v>1</v>
@@ -2924,12 +2955,12 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -2940,10 +2971,10 @@
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1</v>
       </c>
       <c r="K51" s="3">
         <v>1</v>
@@ -2953,12 +2984,12 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2969,7 +3000,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -2982,12 +3013,12 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -2998,10 +3029,10 @@
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
       </c>
       <c r="K53" s="3">
         <v>1</v>
@@ -3011,15 +3042,15 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.5</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
@@ -3027,10 +3058,10 @@
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
       </c>
       <c r="K54" s="3">
         <v>1</v>
@@ -3040,12 +3071,12 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -3056,10 +3087,10 @@
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
@@ -3069,20 +3100,26 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
@@ -3092,20 +3129,26 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
       <c r="I57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.75</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
@@ -3115,7 +3158,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3132,7 +3175,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3149,7 +3192,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3166,7 +3209,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3183,7 +3226,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3200,7 +3243,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3217,7 +3260,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3234,7 +3277,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3251,23 +3294,23 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2">
-        <f>SUM(B3:B55)/53*100</f>
-        <v>33.962264150943398</v>
+        <f>SUM(B3:B57)/55*100</f>
+        <v>79.090909090909093</v>
       </c>
       <c r="C66" s="2">
-        <f>SUM(C3:C55)/53*100</f>
-        <v>79.245283018867923</v>
+        <f>SUM(C3:C57)/55*100</f>
+        <v>75.454545454545453</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2">
         <f>SUM(F3:F33)/31*100</f>
-        <v>64.516129032258064</v>
+        <v>100</v>
       </c>
       <c r="G66" s="2">
         <f>SUM(G3:G33)/31*100</f>
@@ -3277,7 +3320,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="2">
         <f>SUM(J3:J53)/55*100</f>
-        <v>1.8181818181818181</v>
+        <v>20</v>
       </c>
       <c r="K66" s="2">
         <f>SUM(K3:K53)/55*100</f>
@@ -3286,12 +3329,12 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="2">
-        <f>SUM(N3:N45)/43*100</f>
-        <v>79.069767441860463</v>
+        <f>SUM(N3:N46)/44*100</f>
+        <v>94.318181818181827</v>
       </c>
       <c r="O66" s="2">
-        <f>SUM(O3:O45)/43*100</f>
-        <v>93.023255813953483</v>
+        <f>SUM(O3:O46)/44*100</f>
+        <v>90.909090909090907</v>
       </c>
     </row>
   </sheetData>
@@ -3308,38 +3351,38 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3362,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3385,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3408,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3431,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3454,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3477,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3500,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3523,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3546,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3569,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3592,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3615,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3638,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3661,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3684,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3707,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3730,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3753,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3776,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3799,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3822,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3845,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3868,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3891,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3914,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3937,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3960,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3983,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4006,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4029,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4052,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4075,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4098,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4121,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4144,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4167,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4190,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4213,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4236,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4259,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4282,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4305,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4328,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4351,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4374,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4397,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4420,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4443,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4466,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4489,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4512,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4535,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4558,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4581,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4604,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4627,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4650,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4673,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4696,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4719,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4742,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4765,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4788,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4811,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4834,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4857,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4880,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4903,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4926,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4949,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4972,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4995,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5018,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5041,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5064,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5087,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5110,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5133,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5156,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5179,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5202,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5225,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5248,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5271,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5294,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5317,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5340,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5363,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5386,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5409,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5432,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5455,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5478,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5501,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5524,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5547,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5570,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5593,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5616,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5639,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5662,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5685,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5708,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5731,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5754,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5777,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5800,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5823,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5846,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5869,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5892,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5915,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5938,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5961,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5984,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6007,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6030,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6053,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6076,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6099,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6122,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6145,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6168,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6191,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6214,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6237,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6260,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6283,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6306,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6329,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6352,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6375,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6398,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6421,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6444,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6467,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6490,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6513,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6536,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6559,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6582,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -6605,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -6628,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -6651,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -6674,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -6697,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6720,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -6743,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6766,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -6789,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6812,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -6835,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6858,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -6881,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6904,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -6927,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -6950,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -6973,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -6996,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7019,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7042,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7065,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7088,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7111,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7134,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7157,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7180,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -7203,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -7226,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -7249,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -7272,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7295,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -7318,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -7341,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -7364,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -7387,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -7410,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -7433,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -7456,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -7479,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -7502,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -7525,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -7548,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -7571,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7594,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -7617,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7640,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -7663,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7686,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -7709,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7732,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -7755,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -7778,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -7801,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -7824,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -7847,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -7870,7 +7913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -7893,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -7916,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -7939,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -7962,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -7985,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -8008,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -8031,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -8054,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -8077,7 +8120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -8100,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -8123,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -8146,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -8169,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -8192,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -8215,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -8238,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -8261,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -8284,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -8307,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -8330,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -8353,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -8376,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -8399,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -8422,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -8445,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -8468,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -8491,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -8514,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -8537,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -8560,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -8583,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -8606,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -8629,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -8652,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -8675,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -8698,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -8721,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -8744,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -8767,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -8790,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -8813,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -8836,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -8859,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -8882,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -8905,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -8928,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -8951,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -8974,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -8997,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -9020,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -9043,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -9066,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -9089,7 +9132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -9112,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -9135,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -9158,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -9181,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -9204,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -9227,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -9250,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -9273,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -9296,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -9319,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -9342,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -9365,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -9388,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -9411,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -9434,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -9457,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -9480,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -9503,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -9526,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -9549,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -9572,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -9595,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -9618,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -9641,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -9664,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -9687,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -9710,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -9733,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -9756,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -9779,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -9802,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -9825,7 +9868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -9848,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -9871,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -9894,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -9917,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -9940,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -9963,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -9986,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -10009,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -10032,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -10055,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -10078,7 +10121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -10101,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -10124,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -10147,7 +10190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -10170,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -10193,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -10216,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -10239,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -10262,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -10285,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -10308,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -10331,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -10354,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -10377,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -10400,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -10423,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -10446,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -10469,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -10492,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -10515,7 +10558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -10538,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -10561,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -10584,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -10607,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -10630,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -10653,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -10676,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -10699,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -10722,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -10745,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -10768,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -10791,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -10814,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -10837,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -10860,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -10883,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -10906,7 +10949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -10929,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -10952,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -10975,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -10998,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -11021,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -11044,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -11067,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -11090,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -11113,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -11136,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -11159,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -11182,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -11205,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -11228,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -11251,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -11274,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -11297,7 +11340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -11320,7 +11363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -11343,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -11366,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -11389,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -11412,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -11435,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -11458,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -11481,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -11504,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -11527,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -11550,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -11573,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -11596,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -11619,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -11642,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -11665,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -11688,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -11711,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -11734,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -11757,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -11780,7 +11823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -11803,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -11826,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -11849,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -11872,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -11895,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -11918,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -11941,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -11964,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -11987,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -12010,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -12033,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -12056,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -12079,7 +12122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -12102,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -12125,7 +12168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -12148,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -12171,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -12194,7 +12237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -12217,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -12240,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -12263,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -12286,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -12309,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -12332,7 +12375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -12355,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -12378,7 +12421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -12401,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -12424,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -12447,7 +12490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -12470,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -12493,7 +12536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -12516,7 +12559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -12539,7 +12582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -12562,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -12585,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -12608,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -12631,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -12654,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -12677,7 +12720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -12700,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -12723,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -12746,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -12769,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -12792,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -12815,7 +12858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -12838,7 +12881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -12861,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -12884,7 +12927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -12907,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -12930,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -12953,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -12976,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -12999,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -13022,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -13045,7 +13088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -13068,7 +13111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -13091,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -13114,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -13137,7 +13180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -13160,7 +13203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -13183,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -13206,7 +13249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -13229,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -13252,7 +13295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -13275,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -13298,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -13321,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -13344,7 +13387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -13367,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -13390,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -13413,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -13436,7 +13479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -13459,7 +13502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -13482,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -13505,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -13528,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -13551,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -13574,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -13597,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -13620,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -13643,7 +13686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -13666,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -13689,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -13712,7 +13755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -13735,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -13758,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -13781,7 +13824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -13804,7 +13847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -13827,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -13850,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -13873,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -13896,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -13919,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -13942,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -13965,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -13988,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -14011,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -14034,7 +14077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -14057,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -14080,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -14103,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -14126,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -14149,7 +14192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -14172,7 +14215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -14195,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -14218,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -14241,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -14264,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -14287,7 +14330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -14310,7 +14353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -14333,7 +14376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -14356,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -14379,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -14402,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -14425,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -14448,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -14471,7 +14514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -14494,7 +14537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -14517,7 +14560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -14540,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -14563,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -14586,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -14609,7 +14652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -14632,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -14655,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -14678,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14687,9 +14730,9 @@
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B496" s="2">
         <f>SUM(B2:B494)</f>
@@ -14727,7 +14770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14739,7 +14782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14751,7 +14794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14763,7 +14806,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB995872-CF71-48DD-8AB6-10790CE1FFAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WIP/Avancement.xlsx
+++ b/WIP/Avancement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841D18F1-E45C-46DD-8B14-6013D8BD9B9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3142D1A-47E8-49C2-B8A7-F892E79458B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <sheet name="MapJohto" sheetId="5" r:id="rId4"/>
     <sheet name="MapHoenn" sheetId="6" r:id="rId5"/>
     <sheet name="MapSinnoh" sheetId="7" r:id="rId6"/>
-    <sheet name="Musiques" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="201">
   <si>
     <t>Blue</t>
   </si>
@@ -607,9 +606,6 @@
     <t>Ranger H/F</t>
   </si>
   <si>
-    <t>Triathlete H/F</t>
-  </si>
-  <si>
     <t>Scientifique H/F</t>
   </si>
   <si>
@@ -620,13 +616,25 @@
   </si>
   <si>
     <t>Vendeur Shop</t>
+  </si>
+  <si>
+    <t>Rocket Butch</t>
+  </si>
+  <si>
+    <t>Rocket Cassady</t>
+  </si>
+  <si>
+    <t>Triathlete Course H/F</t>
+  </si>
+  <si>
+    <t>Triathlete Velo H/F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,15 +664,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,11 +686,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -728,13 +724,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -750,11 +745,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
-    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1037,7 +1030,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="N3" sqref="N3:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,21 +1110,21 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
@@ -1140,18 +1133,18 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
-        <v>1</v>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1161,18 +1154,18 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
+      <c r="C4" s="4">
+        <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
@@ -1181,39 +1174,39 @@
       <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
@@ -1222,18 +1215,18 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1250,8 +1243,8 @@
       <c r="E6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1270,8 +1263,8 @@
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
+      <c r="N6" s="4">
+        <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -1291,11 +1284,11 @@
       <c r="E7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
@@ -1304,26 +1297,26 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
+      <c r="B8" s="4">
+        <v>0</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1332,11 +1325,11 @@
       <c r="E8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
@@ -1345,26 +1338,26 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
+      <c r="B9" s="4">
+        <v>0</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1373,11 +1366,11 @@
       <c r="E9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
@@ -1386,18 +1379,18 @@
       <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1414,11 +1407,11 @@
       <c r="E10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
@@ -1427,26 +1420,26 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
+      <c r="B11" s="4">
+        <v>0</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1455,11 +1448,11 @@
       <c r="E11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
@@ -1468,26 +1461,26 @@
       <c r="J11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
-        <v>1</v>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
+      <c r="B12" s="4">
+        <v>0</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1496,11 +1489,11 @@
       <c r="E12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
@@ -1509,26 +1502,26 @@
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
+      <c r="B13" s="4">
+        <v>0</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1537,11 +1530,11 @@
       <c r="E13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
@@ -1550,39 +1543,39 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
-        <v>1</v>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
@@ -1591,39 +1584,39 @@
       <c r="J14" s="4">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>1</v>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
@@ -1632,39 +1625,39 @@
       <c r="J15" s="4">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <v>1</v>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
@@ -1673,39 +1666,39 @@
       <c r="J16" s="4">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
-        <v>1</v>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
@@ -1714,39 +1707,39 @@
       <c r="J17" s="4">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
-        <v>1</v>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="2" t="s">
@@ -1755,39 +1748,39 @@
       <c r="J18" s="4">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
@@ -1796,39 +1789,39 @@
       <c r="J19" s="4">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
-        <v>1</v>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
@@ -1837,59 +1830,59 @@
       <c r="J20" s="4">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1</v>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1899,18 +1892,18 @@
       <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
+      <c r="C22" s="4">
+        <v>0</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
@@ -1919,36 +1912,36 @@
       <c r="J22" s="4">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1</v>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
+      <c r="F23" s="4">
+        <v>0</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -1960,18 +1953,18 @@
       <c r="J23" s="4">
         <v>0</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1981,15 +1974,15 @@
       <c r="B24" s="4">
         <v>0</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
+      <c r="C24" s="4">
+        <v>0</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
+      <c r="F24" s="4">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -2001,8 +1994,8 @@
       <c r="J24" s="4">
         <v>0</v>
       </c>
-      <c r="K24" s="3">
-        <v>1</v>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="2" t="s">
@@ -2019,21 +2012,21 @@
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2" t="s">
@@ -2042,39 +2035,39 @@
       <c r="J25" s="4">
         <v>0</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
+      <c r="K25" s="4">
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="2" t="s">
@@ -2083,39 +2076,39 @@
       <c r="J26" s="4">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
+      <c r="K26" s="4">
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1</v>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2" t="s">
@@ -2124,18 +2117,18 @@
       <c r="J27" s="4">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
+      <c r="K27" s="4">
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1</v>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2152,11 +2145,11 @@
       <c r="E28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2" t="s">
@@ -2165,18 +2158,18 @@
       <c r="J28" s="4">
         <v>0</v>
       </c>
-      <c r="K28" s="3">
-        <v>1</v>
+      <c r="K28" s="4">
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2193,11 +2186,11 @@
       <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
@@ -2206,18 +2199,18 @@
       <c r="J29" s="4">
         <v>0</v>
       </c>
-      <c r="K29" s="3">
-        <v>1</v>
+      <c r="K29" s="4">
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1</v>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2234,11 +2227,11 @@
       <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2" t="s">
@@ -2247,26 +2240,26 @@
       <c r="J30" s="4">
         <v>0</v>
       </c>
-      <c r="K30" s="3">
-        <v>1</v>
+      <c r="K30" s="4">
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
+      <c r="A31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -2275,11 +2268,11 @@
       <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
@@ -2288,26 +2281,26 @@
       <c r="J31" s="4">
         <v>0</v>
       </c>
-      <c r="K31" s="3">
-        <v>1</v>
+      <c r="K31" s="4">
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1</v>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
+      <c r="A32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -2316,11 +2309,11 @@
       <c r="E32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2" t="s">
@@ -2329,8 +2322,8 @@
       <c r="J32" s="4">
         <v>0</v>
       </c>
-      <c r="K32" s="3">
-        <v>1</v>
+      <c r="K32" s="4">
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
@@ -2345,23 +2338,23 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
@@ -2370,29 +2363,29 @@
       <c r="J33" s="4">
         <v>0</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
+      <c r="K33" s="4">
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>13</v>
+      <c r="A34" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
+      <c r="C34" s="4">
+        <v>0</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="6"/>
@@ -2405,29 +2398,29 @@
       <c r="J34" s="4">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
-        <v>1</v>
+      <c r="K34" s="4">
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="N34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>1</v>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="6"/>
@@ -2440,29 +2433,29 @@
       <c r="J35" s="4">
         <v>0</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
+      <c r="K35" s="4">
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1</v>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
+      <c r="C36" s="4">
+        <v>0</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="6"/>
@@ -2475,29 +2468,29 @@
       <c r="J36" s="4">
         <v>0</v>
       </c>
-      <c r="K36" s="3">
-        <v>1</v>
+      <c r="K36" s="4">
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <v>1</v>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="6"/>
@@ -2510,29 +2503,29 @@
       <c r="J37" s="4">
         <v>0</v>
       </c>
-      <c r="K37" s="3">
-        <v>1</v>
+      <c r="K37" s="4">
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1</v>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="6"/>
@@ -2545,29 +2538,29 @@
       <c r="J38" s="4">
         <v>0</v>
       </c>
-      <c r="K38" s="3">
-        <v>1</v>
+      <c r="K38" s="4">
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1</v>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
@@ -2580,15 +2573,15 @@
       <c r="J39" s="4">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
-        <v>1</v>
+      <c r="K39" s="4">
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1</v>
+        <v>194</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
@@ -2596,13 +2589,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
@@ -2612,32 +2605,32 @@
       <c r="I40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>1</v>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -2647,32 +2640,32 @@
       <c r="I41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N41" s="3">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1</v>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
@@ -2685,29 +2678,29 @@
       <c r="J42" s="4">
         <v>0</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
+      <c r="K42" s="4">
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1</v>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
@@ -2720,29 +2713,29 @@
       <c r="J43" s="4">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
+      <c r="K43" s="4">
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N43" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1</v>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
@@ -2752,32 +2745,32 @@
       <c r="I44" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1</v>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1</v>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
@@ -2790,29 +2783,29 @@
       <c r="J45" s="4">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
+      <c r="K45" s="4">
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N45" s="3">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1</v>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
@@ -2822,32 +2815,32 @@
       <c r="I46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1</v>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -2857,11 +2850,11 @@
       <c r="I47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="3">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1</v>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="2"/>
@@ -2870,13 +2863,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -2886,11 +2879,11 @@
       <c r="I48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J48" s="3">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1</v>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="2"/>
@@ -2898,14 +2891,14 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
+      <c r="A49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -2915,11 +2908,11 @@
       <c r="I49" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J49" s="3">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1</v>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="2"/>
@@ -2928,13 +2921,13 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -2944,11 +2937,11 @@
       <c r="I50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="3">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3">
-        <v>1</v>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="2"/>
@@ -2956,14 +2949,14 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
+      <c r="A51" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -2973,11 +2966,11 @@
       <c r="I51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J51" s="3">
-        <v>1</v>
-      </c>
-      <c r="K51" s="3">
-        <v>1</v>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="2"/>
@@ -2986,13 +2979,13 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -3005,8 +2998,8 @@
       <c r="J52" s="4">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
-        <v>1</v>
+      <c r="K52" s="4">
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="2"/>
@@ -3014,14 +3007,14 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
@@ -3031,11 +3024,11 @@
       <c r="I53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J53" s="3">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3">
-        <v>1</v>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="2"/>
@@ -3043,14 +3036,14 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11">
-        <v>0.5</v>
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
@@ -3060,11 +3053,11 @@
       <c r="I54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="3">
-        <v>1</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1</v>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="2"/>
@@ -3073,13 +3066,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
@@ -3089,11 +3082,11 @@
       <c r="I55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J55" s="3">
-        <v>1</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1</v>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="2"/>
@@ -3101,14 +3094,14 @@
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
+      <c r="A56" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -3118,11 +3111,11 @@
       <c r="I56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J56" s="3">
-        <v>1</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1</v>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="2"/>
@@ -3131,13 +3124,13 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
@@ -3145,13 +3138,13 @@
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
       <c r="I57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J57" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="2"/>
@@ -3159,26 +3152,44 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3299,42 +3310,42 @@
         <v>83</v>
       </c>
       <c r="B66" s="2">
-        <f>SUM(B3:B57)/55*100</f>
-        <v>79.090909090909093</v>
+        <f>SUM(B3:B59)/55*100</f>
+        <v>0</v>
       </c>
       <c r="C66" s="2">
-        <f>SUM(C3:C57)/55*100</f>
-        <v>75.454545454545453</v>
+        <f>SUM(C3:C59)/55*100</f>
+        <v>0</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2">
         <f>SUM(F3:F33)/31*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
         <f>SUM(G3:G33)/31*100</f>
-        <v>90.322580645161281</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2">
-        <f>SUM(J3:J53)/55*100</f>
-        <v>20</v>
+        <f>SUM(J3:J58)/55*100</f>
+        <v>0</v>
       </c>
       <c r="K66" s="2">
-        <f>SUM(K3:K53)/55*100</f>
-        <v>90.909090909090907</v>
+        <f>SUM(K3:K58)/55*100</f>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="2">
         <f>SUM(N3:N46)/44*100</f>
-        <v>94.318181818181827</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2">
         <f>SUM(O3:O46)/44*100</f>
-        <v>90.909090909090907</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3359,7 @@
   <dimension ref="A1:G496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14810,16 +14821,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB995872-CF71-48DD-8AB6-10790CE1FFAA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WIP/Avancement.xlsx
+++ b/WIP/Avancement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3142D1A-47E8-49C2-B8A7-F892E79458B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5339561C-A99E-4958-B51D-1BE26938930C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personnage" sheetId="2" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Rocket Lance</t>
   </si>
   <si>
-    <t>Guitariste</t>
-  </si>
-  <si>
     <t>Jumelles</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>Champion Koga</t>
   </si>
   <si>
-    <t>Champion Morganne</t>
-  </si>
-  <si>
     <t>Champion Auguste</t>
   </si>
   <si>
@@ -579,9 +573,6 @@
     <t>Flotteur H/F</t>
   </si>
   <si>
-    <t>Poke Enfant H/F</t>
-  </si>
-  <si>
     <t>Serveur H/F</t>
   </si>
   <si>
@@ -594,9 +585,6 @@
     <t>Ecolier H/F</t>
   </si>
   <si>
-    <t>TeleKinesiste</t>
-  </si>
-  <si>
     <t>Moine H/F</t>
   </si>
   <si>
@@ -628,13 +616,25 @@
   </si>
   <si>
     <t>Triathlete Velo H/F</t>
+  </si>
+  <si>
+    <t>Champion Morgan</t>
+  </si>
+  <si>
+    <t>Guitariste H/F</t>
+  </si>
+  <si>
+    <t>Poke Enfant</t>
+  </si>
+  <si>
+    <t>TeleKinesiste H/F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,8 +664,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +693,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -724,12 +736,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -745,9 +758,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1030,58 +1045,58 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O46"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1095,141 +1110,141 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.5</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.5</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1241,1093 +1256,1093 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.5</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
-      <c r="K23" s="4">
-        <v>0</v>
+      <c r="K23" s="3">
+        <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.5</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
       </c>
-      <c r="K32" s="4">
-        <v>0</v>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
@@ -2336,53 +2351,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2393,34 +2408,34 @@
       <c r="G34" s="7"/>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="6"/>
@@ -2428,34 +2443,34 @@
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="6"/>
@@ -2463,34 +2478,34 @@
       <c r="G36" s="7"/>
       <c r="H36" s="1"/>
       <c r="I36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="6"/>
@@ -2498,34 +2513,34 @@
       <c r="G37" s="7"/>
       <c r="H37" s="1"/>
       <c r="I37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="6"/>
@@ -2533,34 +2548,34 @@
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
-      <c r="O38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
@@ -2568,34 +2583,34 @@
       <c r="G39" s="7"/>
       <c r="H39" s="1"/>
       <c r="I39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
@@ -2603,34 +2618,34 @@
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -2638,34 +2653,34 @@
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
@@ -2673,34 +2688,34 @@
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
@@ -2708,34 +2723,34 @@
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
@@ -2743,34 +2758,34 @@
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0</v>
-      </c>
-      <c r="O44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
@@ -2778,34 +2793,34 @@
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
@@ -2813,34 +2828,34 @@
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -2848,28 +2863,28 @@
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -2877,28 +2892,28 @@
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -2906,28 +2921,28 @@
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -2935,28 +2950,28 @@
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -2964,28 +2979,28 @@
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -2993,28 +3008,28 @@
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
+      <c r="B53" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
@@ -3022,28 +3037,28 @@
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
+      <c r="B54" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
@@ -3051,28 +3066,28 @@
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
@@ -3080,28 +3095,28 @@
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -3109,28 +3124,28 @@
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="4">
-        <v>0</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
@@ -3138,28 +3153,28 @@
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
       <c r="I57" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0.5</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
@@ -3167,28 +3182,28 @@
       <c r="G58" s="2"/>
       <c r="H58" s="1"/>
       <c r="I58" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
@@ -3203,7 +3218,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3220,7 +3235,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3237,7 +3252,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3254,7 +3269,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3271,7 +3286,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3288,7 +3303,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3305,47 +3320,47 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2">
         <f>SUM(B3:B59)/55*100</f>
-        <v>0</v>
+        <v>99.545454545454547</v>
       </c>
       <c r="C66" s="2">
         <f>SUM(C3:C59)/55*100</f>
-        <v>0</v>
+        <v>83.636363636363626</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2">
         <f>SUM(F3:F33)/31*100</f>
-        <v>0</v>
+        <v>98.387096774193552</v>
       </c>
       <c r="G66" s="2">
         <f>SUM(G3:G33)/31*100</f>
-        <v>0</v>
+        <v>90.322580645161281</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2">
         <f>SUM(J3:J58)/55*100</f>
-        <v>0</v>
+        <v>79.545454545454547</v>
       </c>
       <c r="K66" s="2">
         <f>SUM(K3:K58)/55*100</f>
-        <v>0</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="2">
         <f>SUM(N3:N46)/44*100</f>
-        <v>0</v>
+        <v>95.454545454545453</v>
       </c>
       <c r="O66" s="2">
         <f>SUM(O3:O46)/44*100</f>
-        <v>0</v>
+        <v>92.045454545454547</v>
       </c>
     </row>
   </sheetData>
@@ -3362,38 +3377,38 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3416,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3462,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3485,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3531,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3554,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3577,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3600,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3623,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3646,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3692,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3715,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3784,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3807,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3830,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3876,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3922,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3945,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3968,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3991,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4014,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4037,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4060,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4083,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4106,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4129,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4175,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4221,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4267,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4382,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4405,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4428,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4451,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4474,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4497,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4543,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4566,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4589,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4612,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4658,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4681,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4727,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4750,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4773,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4796,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4819,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4888,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4911,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4934,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4957,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5026,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5049,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5072,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5118,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5164,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5210,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5233,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5256,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5279,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5302,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5325,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5348,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5371,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5394,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5417,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5440,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5486,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5509,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5532,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5555,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5578,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5624,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5647,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5693,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5739,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5762,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5785,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5808,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5831,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5854,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5877,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5900,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5923,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5946,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5969,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5992,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -6015,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -6038,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6061,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6084,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6107,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6130,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6153,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6176,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6199,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6222,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6245,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6291,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6337,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6360,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6383,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6406,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6429,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6452,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6475,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6498,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6521,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6544,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6567,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6613,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -6659,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -6682,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -6705,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -6728,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -6751,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6774,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -6797,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6820,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -6843,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6866,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -6889,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6912,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -6935,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6958,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -6981,7 +6996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7004,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7050,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7073,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7096,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7119,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7142,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7188,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7211,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7234,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -7257,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -7280,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -7303,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -7326,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -7372,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -7395,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -7418,7 +7433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -7441,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -7464,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -7487,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -7510,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -7533,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -7556,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -7579,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -7602,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -7625,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7648,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -7671,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7694,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -7717,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7740,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -7763,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7786,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -7809,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -7832,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -7855,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -7878,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -7901,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -7924,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -7947,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -7970,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -7993,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -8016,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -8039,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -8062,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -8085,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -8108,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -8131,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -8154,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -8177,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -8200,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -8223,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -8246,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -8269,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -8292,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -8315,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -8338,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -8361,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -8384,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -8407,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -8430,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -8453,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -8476,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -8499,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -8522,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -8545,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -8568,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -8591,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -8614,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -8637,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -8660,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -8683,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -8706,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -8729,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -8752,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -8775,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -8798,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -8821,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -8844,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -8890,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -8913,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -8936,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -8959,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -8982,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -9005,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -9028,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -9051,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -9074,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -9097,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -9120,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -9143,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -9166,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -9189,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -9212,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -9235,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -9258,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -9281,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -9304,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -9327,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -9350,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -9373,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -9396,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -9419,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -9442,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -9465,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -9488,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -9511,7 +9526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -9534,7 +9549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -9557,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -9580,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -9603,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -9626,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -9649,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -9672,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -9695,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -9718,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -9741,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -9764,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -9787,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -9810,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -9833,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -9856,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -9879,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -9902,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -9925,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -9948,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -9971,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -9994,7 +10009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -10017,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -10040,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -10063,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -10086,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -10109,7 +10124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -10132,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -10155,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -10178,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -10201,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -10224,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -10247,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -10270,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -10293,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -10316,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -10339,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -10362,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -10385,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -10408,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -10431,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -10454,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -10477,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -10500,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -10523,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -10546,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -10569,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -10592,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -10615,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -10638,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -10661,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -10684,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -10707,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -10730,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -10753,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -10776,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -10799,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -10822,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -10845,7 +10860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -10868,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -10891,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -10914,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -10937,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -10960,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -10983,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -11006,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -11029,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -11052,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -11075,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -11098,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -11121,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -11144,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -11167,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -11190,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -11213,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -11236,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -11259,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -11282,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -11305,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -11328,7 +11343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -11351,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -11374,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -11397,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -11420,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -11443,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -11466,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -11489,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -11512,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -11535,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -11558,7 +11573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -11581,7 +11596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -11604,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -11627,7 +11642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -11650,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -11673,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -11696,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -11719,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -11742,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -11765,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -11788,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -11811,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -11834,7 +11849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -11857,7 +11872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -11880,7 +11895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -11903,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -11926,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -11949,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -11972,7 +11987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -11995,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -12018,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -12041,7 +12056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -12064,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -12087,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -12110,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -12133,7 +12148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -12156,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -12179,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -12202,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -12225,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -12248,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -12271,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -12294,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -12317,7 +12332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -12340,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -12363,7 +12378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -12386,7 +12401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -12409,7 +12424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -12432,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -12455,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -12478,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -12501,7 +12516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -12524,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -12547,7 +12562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -12570,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -12593,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -12616,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -12639,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -12662,7 +12677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -12685,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -12708,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -12731,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -12754,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -12777,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -12800,7 +12815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -12823,7 +12838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -12846,7 +12861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -12869,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -12892,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -12915,7 +12930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -12938,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -12961,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -12984,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -13007,7 +13022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -13030,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -13053,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -13076,7 +13091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -13099,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -13122,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -13145,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -13168,7 +13183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -13191,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -13214,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -13237,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -13260,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -13283,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -13306,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -13329,7 +13344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -13352,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -13375,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -13398,7 +13413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -13421,7 +13436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -13444,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -13467,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -13490,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -13513,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -13536,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -13559,7 +13574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -13582,7 +13597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -13605,7 +13620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -13628,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -13651,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -13674,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -13697,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -13720,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -13743,7 +13758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -13766,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -13789,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -13812,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -13835,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -13858,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -13881,7 +13896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -13904,7 +13919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -13927,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -13950,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -13973,7 +13988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -13996,7 +14011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -14019,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -14042,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -14065,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -14088,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -14111,7 +14126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -14134,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -14157,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -14180,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -14203,7 +14218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -14226,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -14249,7 +14264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -14272,7 +14287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -14295,7 +14310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -14318,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -14341,7 +14356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -14364,7 +14379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -14387,7 +14402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -14410,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -14433,7 +14448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -14456,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -14479,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -14502,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -14525,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -14548,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -14571,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -14594,7 +14609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -14617,7 +14632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -14640,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -14663,7 +14678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -14686,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -14709,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -14732,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14741,9 +14756,9 @@
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B496" s="2">
         <f>SUM(B2:B494)</f>
@@ -14781,7 +14796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14793,7 +14808,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14805,7 +14820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14817,7 +14832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
